--- a/BIT/excel.xlsx
+++ b/BIT/excel.xlsx
@@ -23,7 +23,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -45,31 +45,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -77,31 +62,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -382,10 +349,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -393,47 +360,39 @@
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2">
-        <v>1</v>
-      </c>
-      <c r="B1" s="2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="1">
         <v>2</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-    </row>
-    <row r="2" spans="1:4" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>88</v>
-      </c>
-      <c r="B2" s="2">
+      <c r="B1" s="1">
         <v>3</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-    </row>
-    <row r="3" spans="1:4" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
         <v>3</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B2" s="1">
         <v>4</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-    </row>
-    <row r="4" spans="1:4" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+    </row>
+    <row r="3" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
         <v>4</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B3" s="1">
         <v>5</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>6</v>
       </c>
@@ -441,7 +400,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>7</v>
       </c>
@@ -449,7 +408,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>8</v>
       </c>
@@ -457,7 +416,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>9</v>
       </c>
@@ -465,7 +424,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>10</v>
       </c>
@@ -473,7 +432,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>11</v>
       </c>
@@ -481,7 +440,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>12</v>
       </c>
@@ -489,7 +448,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>13</v>
       </c>
@@ -497,7 +456,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>14</v>
       </c>
